--- a/fhir/core/observations-summary.xlsx
+++ b/fhir/core/observations-summary.xlsx
@@ -166,10 +166,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/fhir/core/observations-summary.xlsx
+++ b/fhir/core/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Profile</t>
   </si>
@@ -45,6 +45,30 @@
   </si>
   <si>
     <t>Method</t>
+  </si>
+  <si>
+    <t>dk-core-basic-observation</t>
+  </si>
+  <si>
+    <t>Danish Core Basic Observation Profile</t>
+  </si>
+  <si>
+    <t>null#vital-signs</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>http://hl7.dk/fhir/core/ValueSet/dk-core-IEEEBasicObservation (extensible)</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+  </si>
+  <si>
+    <t>optional</t>
   </si>
 </sst>
 </file>
@@ -178,7 +202,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -219,6 +243,41 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
